--- a/biology/Zoologie/L'Attaque_des_primates_(téléfilm)/L'Attaque_des_primates_(téléfilm).xlsx
+++ b/biology/Zoologie/L'Attaque_des_primates_(téléfilm)/L'Attaque_des_primates_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Attaque_des_primates_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Attaque_des_primates_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Attaque des primates (Primal Force) est un téléfilm américain diffusé en 1999 et réalisé par Nelson McCormick.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Attaque_des_primates_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Attaque_des_primates_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe de sauveteurs tente de localiser les éventuels rescapés d'un crash d'hélicoptère survenu à San Miguel, une île mexicaine peuplée de babouins mutants. Un appareil s'écrase sur la petite île de San Miguel. Une équipe de secours est aussitôt constituée pour récupérer l'équipage de l'avion, dont fait partie la fille d'un riche homme d'affaires. C'est Frank Brodie, un mercenaire violent connaissant parfaitement le terrain, qui dirige les hommes chargés de cette mission délicate. Mais l'île est peuplée de babouins mutants, résultats d'expériences menées dix ans auparavant, qui se montrent particulièrement agressifs envers les humains. L'équipage de l'avion est vite décimé et les survivants tentent d'échapper aux singes furieux. Le petit groupe s'organise, chacun craignant à tout moment d'être mis en pièces par un singe mutant
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Attaque_des_primates_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Attaque_des_primates_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Nelson McCormick
 Année de production : 1999
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Attaque_des_primates_(t%C3%A9l%C3%A9film)</t>
+          <t>L'Attaque_des_primates_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ron Perlman (VF : Marc Alfos) : Frank Brodie
 Mark Kiely : Scott Davis
